--- a/示例试卷.xlsx
+++ b/示例试卷.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\graduation\guraduation_papers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04D8E54-4F50-4126-8846-E548C9C2871D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="251" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="14400" tabRatio="251"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>questions</t>
   </si>
@@ -61,22 +55,31 @@
     <t>description</t>
   </si>
   <si>
-    <t>说到喜糖，你觉得下面哪种糖最适合？</t>
+    <t>头痛</t>
   </si>
   <si>
     <t>_</t>
   </si>
   <si>
-    <t>https://ss2.bdstatic.com/70cFvnSh_Q1YnxGkpoWK1HF6hhy/it/u=2032379950,3484882496&amp;fm=15&amp;gp=0.jpg*https://ss0.bdstatic.com/70cFvHSh_Q1YnxGkpoWK1HF6hhy/it/u=3348077675,600667285&amp;fm=26&amp;gp=0.jpg*https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1551632343623&amp;di=9fe592316d31ddc1bf41e6c50260643c&amp;imgtype=0&amp;src=http%3A%2F%2Fphotocdn.sohu.com%2F20160114%2Fmp54511576_1452766048450_6.jpg</t>
+    <t>没有/较轻/中度/较重/严重</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>1#0#0#0#0/0#1#0#0#0/0#0#1#0#0/0#0#0#1#0/0#0#0#0#1</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0#10</t>
-  </si>
-  <si>
-    <t>责任心</t>
+    <t>5#10</t>
+  </si>
+  <si>
+    <t>你的心情非常平稳</t>
+  </si>
+  <si>
+    <t>心情平稳</t>
   </si>
   <si>
     <t>paper_test</t>
@@ -91,73 +94,84 @@
     <t>这是描述</t>
   </si>
   <si>
-    <t>如果感冒了，你一开始会先用食疗法试一试吗？</t>
-  </si>
-  <si>
-    <t>不确定/会/不会</t>
-  </si>
-  <si>
-    <t>**https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1552227143&amp;di=64ad827692ede8d6905067e3df60ef51&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2Fimg002.hc360.cn%2Fm1%2FM01%2F57%2FA9%2FwKhQcFQmecKEQmsAAAAAAGjJSio899.jpg</t>
-  </si>
-  <si>
-    <t>-1#-2#-3#0/1#2#3#4/3#4#5#6/2#1#4#6</t>
-  </si>
-  <si>
-    <t>/0#10</t>
-  </si>
-  <si>
-    <t>爱心</t>
-  </si>
-  <si>
-    <t>吃夜宵你喜欢喝点啤酒吗？</t>
-  </si>
-  <si>
-    <t>很喜欢/不喜欢/一般</t>
-  </si>
-  <si>
-    <t>-1#-2#-3#0/1#2#3#4/3#4#5#6/2#1#4#7</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>//0#10</t>
-  </si>
-  <si>
-    <t>激情</t>
-  </si>
-  <si>
-    <t>你希望自己在2019年有大丰收吗？</t>
-  </si>
-  <si>
-    <t>希望/不希望/无所谓</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>-1#-2#-3#0/1#2#3#4/3#4#5#6/2#1#4#8</t>
-  </si>
-  <si>
-    <t>///0#10</t>
-  </si>
-  <si>
-    <t>努力</t>
-  </si>
-  <si>
-    <t>-1#-2#-3#0/1#2#3#4/3#4#5#6/2#1#4#5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜酥糖/牛奶糖/跳跳糖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>神经过敏，心中不踏实</t>
+  </si>
+  <si>
+    <t>/5#10</t>
+  </si>
+  <si>
+    <t>你的心情有些焦虑</t>
+  </si>
+  <si>
+    <t>心情有些焦虑</t>
+  </si>
+  <si>
+    <t>头脑中有不必要的想法或字句盘旋</t>
+  </si>
+  <si>
+    <t>//5#10</t>
+  </si>
+  <si>
+    <t>心情不焦虑不平稳</t>
+  </si>
+  <si>
+    <t>心情适中</t>
+  </si>
+  <si>
+    <t>头昏或昏倒</t>
+  </si>
+  <si>
+    <t>///5#10</t>
+  </si>
+  <si>
+    <t>心情焦虑</t>
+  </si>
+  <si>
+    <t>对异性的兴趣减退</t>
+  </si>
+  <si>
+    <t>////5#10</t>
+  </si>
+  <si>
+    <t>心情糟糕</t>
+  </si>
+  <si>
+    <t>感到别人能控制您的思想</t>
+  </si>
+  <si>
+    <t>0#10/0#10/0#10/0#10/0#10</t>
+  </si>
+  <si>
+    <t>你的心情属于正常范围</t>
+  </si>
+  <si>
+    <t xml:space="preserve">责怪别人制造麻烦
+</t>
+  </si>
+  <si>
+    <t>忘记性大</t>
+  </si>
+  <si>
+    <t>担心自己的衣饰整齐及仪态的端正</t>
+  </si>
+  <si>
+    <t>容易烦恼和激动</t>
+  </si>
+  <si>
+    <t>胸痛</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,21 +180,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,34 +533,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -473,36 +1110,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.1057692307692" customWidth="1"/>
+    <col min="2" max="2" width="16.8846153846154" customWidth="1"/>
+    <col min="3" max="3" width="15.6634615384615" customWidth="1"/>
+    <col min="4" max="4" width="14.2211538461538" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.6634615384615" customWidth="1"/>
+    <col min="7" max="7" width="20.2211538461538" customWidth="1"/>
+    <col min="8" max="8" width="23.7788461538462" customWidth="1"/>
+    <col min="9" max="9" width="13.8846153846154" customWidth="1"/>
+    <col min="10" max="10" width="12.8846153846154" customWidth="1"/>
+    <col min="11" max="11" width="14.3365384615385" customWidth="1"/>
+    <col min="12" max="12" width="11.7788461538462" customWidth="1"/>
+    <col min="13" max="13" width="11.6634615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,136 +1180,291 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H3">
-        <v>2</v>
+      <c r="H3" t="s">
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" ht="23" customHeight="1" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>